--- a/templates/template2.xlsx
+++ b/templates/template2.xlsx
@@ -23,38 +23,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">FROM</t>
   </si>
   <si>
-    <t xml:space="preserve">PrintPro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450 Provencher Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winnipeg, MB R2J 0B9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204-889-3030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     sales@printprodigital.com</t>
+    <t xml:space="preserve">Your Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">777 Your St.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winnipeg, MB R0R 0R0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204-777-0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     sales@yourcompany.com</t>
   </si>
   <si>
     <t xml:space="preserve">SHIP TO</t>
   </si>
   <si>
-    <t xml:space="preserve">Manitoba Motor Dealers Association</t>
+    <t xml:space="preserve">Doodoo Dynamics</t>
   </si>
   <si>
     <t xml:space="preserve">123 Anywhere Street hahaha – unit # 09099090</t>
   </si>
   <si>
-    <t xml:space="preserve">Winnipeg, MB R0R 0R0</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATTN: John Doe</t>
   </si>
   <si>
@@ -64,23 +61,17 @@
     <t xml:space="preserve">JOB DETAILS</t>
   </si>
   <si>
-    <t xml:space="preserve">Order # 99999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO # ABC000123</t>
+    <t xml:space="preserve">Invoice # 99999</t>
   </si>
   <si>
     <t xml:space="preserve">Qty in this box:   </t>
   </si>
   <si>
-    <t xml:space="preserve">(1) Bond Stock St. Thomas Aquinas - Raffle Tickets, (2) Flyers Perch Bay Resort - Price Sheets</t>
+    <t xml:space="preserve">(1) Awesome Stuff, (2) Nice Chair</t>
   </si>
   <si>
     <t xml:space="preserve">Item 1: 100
 Item 2: 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#001 - 5000</t>
   </si>
 </sst>
 </file>
@@ -377,19 +368,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>355680</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2110320</xdr:colOff>
+      <xdr:colOff>2411280</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>193680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 4" descr=""/>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -398,8 +389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3452400" y="82080"/>
-          <a:ext cx="1754640" cy="581040"/>
+          <a:off x="3096720" y="0"/>
+          <a:ext cx="2411280" cy="733320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -422,7 +413,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,7 +488,7 @@
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="17"/>
@@ -506,50 +497,46 @@
       <c r="A8" s="2"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="0"/>
       <c r="E10" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="C11" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
     </row>
@@ -560,6 +547,9 @@
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="C11:D11"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" display="     sales@yourcompany.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="75" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -567,6 +557,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>